--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422667.6614381165</v>
+        <v>420780.0799217153</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>121.0633651463834</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>227.2091157308878</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>234.2559520454602</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>157.2443566923297</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>246.795623832921</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.44420492154083</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>320.8363757697447</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>149.6058004679907</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4.303204852634497</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70678535262284</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>85.61718991080046</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.496989041814403</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>210.6175425635952</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.15452024383345</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>33.35146980185863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>59.77945773664995</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3965091869241</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>33.35146980185849</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>115.5269768002179</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>58.43974171833466</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,10 +2770,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>45.4001232265372</v>
       </c>
       <c r="E31" t="n">
-        <v>18.92077583358059</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
         <v>90.21779139437413</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789621</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1686.741202187451</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>594.1930173427669</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>176.2292092409538</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>176.2292092409538</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2017.804089531021</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1686.741202187451</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1686.741202187451</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1686.741202187451</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1686.741202187451</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.9506728057374</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
         <v>478.8522906713811</v>
@@ -4553,7 +4553,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4650,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>627.680292366494</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1293.182375355301</v>
+        <v>1778.063616086467</v>
       </c>
       <c r="C8" t="n">
-        <v>924.2198584148889</v>
+        <v>1778.063616086467</v>
       </c>
       <c r="D8" t="n">
-        <v>924.2198584148889</v>
+        <v>1419.797917479717</v>
       </c>
       <c r="E8" t="n">
-        <v>538.4316058166446</v>
+        <v>1034.009664881473</v>
       </c>
       <c r="F8" t="n">
-        <v>531.4861050674411</v>
+        <v>623.0237600918651</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>205.059951990052</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2168.202948062279</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>2168.202948062279</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.782215419422</v>
+        <v>1778.063616086467</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>694.3653934917385</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="T10" t="n">
-        <v>694.3653934917385</v>
+        <v>257.1154545468211</v>
       </c>
       <c r="U10" t="n">
-        <v>694.3653934917385</v>
+        <v>257.1154545468211</v>
       </c>
       <c r="V10" t="n">
-        <v>439.6809052858516</v>
+        <v>257.1154545468211</v>
       </c>
       <c r="W10" t="n">
-        <v>439.6809052858516</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5127,16 +5127,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1412.434260546993</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1412.434260546993</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1412.434260546993</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1412.434260546993</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.434260546993</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.017090510032</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X13" t="n">
-        <v>895.0275396120149</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.2349604684848</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2484.468242641992</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>542.438140992646</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>542.438140992646</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,19 +5525,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259991</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X19" t="n">
-        <v>557.804124327982</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.804124327982</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>223.1552313137078</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>634.0455001582205</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>880.8106280646848</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>157.6003821033666</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013839</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>157.6003821033666</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>157.6003821033666</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201019</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201019</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201019</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201019</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>213.9110074201019</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>213.9110074201019</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609668</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550799</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181192</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201019</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201019</v>
+        <v>130.9054447954964</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515098</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6248,7 +6248,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.3586382081041</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>324.4224552801973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383439</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383439</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383439</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>675.0071030383439</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.0071030383439</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030878</v>
+        <v>439.5324299542194</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565519</v>
+        <v>326.3571123076833</v>
       </c>
       <c r="D31" t="n">
-        <v>357.888937725587</v>
+        <v>280.4984019778477</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441925</v>
+        <v>188.3461736768254</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6625,13 +6625,13 @@
         <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818937</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652471</v>
+        <v>730.4517433652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030878</v>
+        <v>565.4200295030882</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,10 +6938,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,10 +6962,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7078,19 +7078,19 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010317</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7333,10 +7333,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7433,10 +7433,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7549,22 +7549,22 @@
         <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,10 +7637,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,28 +7649,28 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>52.49733361305314</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.409182577676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298301</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127701</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>39.88923345256779</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706262978</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>295.3773510571272</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>242.9997743936052</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.34716249299234</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>249.6406542820136</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>75.90545577299585</v>
+        <v>185.2331835502365</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.6774599381039</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>107.4673633619779</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.84084321165321</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>115.2640032163539</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>33.38685156731826</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>36.51615797628588</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>90.1757312998777</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.01209316311805</v>
       </c>
       <c r="E31" t="n">
-        <v>72.30993018443147</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
         <v>332374.7007770526</v>
@@ -26329,7 +26329,7 @@
         <v>332374.7007770526</v>
       </c>
       <c r="H2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="I2" t="n">
         <v>332374.7007770523</v>
@@ -26338,22 +26338,22 @@
         <v>332374.7007770524</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434796</v>
+        <v>345798.8167434799</v>
       </c>
       <c r="L2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="M2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="N2" t="n">
         <v>348942.7521923203</v>
       </c>
-      <c r="M2" t="n">
-        <v>348942.7521923203</v>
-      </c>
-      <c r="N2" t="n">
-        <v>348942.7521923202</v>
-      </c>
       <c r="O2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26442,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819117</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819114</v>
-      </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-489517.0728721578</v>
+        <v>-489517.0728721577</v>
       </c>
       <c r="C6" t="n">
         <v>100450.8063423866</v>
       </c>
       <c r="D6" t="n">
-        <v>100450.8063423868</v>
+        <v>100450.8063423865</v>
       </c>
       <c r="E6" t="n">
-        <v>-306947.2692354309</v>
+        <v>-307044.7283614029</v>
       </c>
       <c r="F6" t="n">
-        <v>218212.767241465</v>
+        <v>218115.3081154929</v>
       </c>
       <c r="G6" t="n">
-        <v>218212.7672414653</v>
+        <v>218115.308115493</v>
       </c>
       <c r="H6" t="n">
-        <v>218212.767241465</v>
+        <v>218115.3081154927</v>
       </c>
       <c r="I6" t="n">
-        <v>218212.7672414646</v>
+        <v>218115.3081154932</v>
       </c>
       <c r="J6" t="n">
-        <v>41789.54804887201</v>
+        <v>41692.08892289996</v>
       </c>
       <c r="K6" t="n">
-        <v>164668.7728093438</v>
+        <v>164650.2790714098</v>
       </c>
       <c r="L6" t="n">
-        <v>196291.3447432369</v>
+        <v>196291.344743237</v>
       </c>
       <c r="M6" t="n">
-        <v>71833.23631026655</v>
+        <v>71833.23631026676</v>
       </c>
       <c r="N6" t="n">
-        <v>206634.2515441036</v>
+        <v>206634.2515441037</v>
       </c>
       <c r="O6" t="n">
-        <v>206634.2515441037</v>
+        <v>206634.251544104</v>
       </c>
       <c r="P6" t="n">
         <v>162471.646241258</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>30.86795109847783</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>24.01505177740154</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79469286292885</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.02592219651748</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>208.0285350786778</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>80.95663463721388</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,16 +27822,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.8376693204369</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>92.94779425105031</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>174.3169722963665</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>207.8423340973844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.8162129839682</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>140.5103663981272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>556.8688383914609</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761837</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523318</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>350.313610503034</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478579</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477039</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37397,10 +37397,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131515</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>553.4241514440714</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
